--- a/data/entities/entity_TODAY_EGY_HW_crops.xlsx
+++ b/data/entities/entity_TODAY_EGY_HW_crops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkalomalos\Projects\unu\climada-unu\data\entities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27D3705-7C42-4CA0-9DE6-855AC493B526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8617937-314C-4752-AF85-F77902051A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="8" r:id="rId1"/>
@@ -1265,34 +1265,34 @@
     <t>value_display_unit_fact</t>
   </si>
   <si>
-    <t>Early warning system</t>
-  </si>
-  <si>
     <t>0.93 0.33 0.34</t>
-  </si>
-  <si>
-    <t>Training on Adaptation agricultural practices</t>
   </si>
   <si>
     <t>1 0.5 0.4</t>
   </si>
   <si>
-    <t>Water-saving cultivation and production practices</t>
-  </si>
-  <si>
-    <t>0.09 0.44 0.61</t>
-  </si>
-  <si>
-    <t>Research and monitoring</t>
-  </si>
-  <si>
     <t>1 0.75 0.6</t>
   </si>
   <si>
-    <t>Climate smart agriculture</t>
+    <t>EWS</t>
   </si>
   <si>
-    <t>0.38 0.75 0.6</t>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>WSP</t>
+  </si>
+  <si>
+    <t>0.98 0.63 0.56</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>0.49 0.84 0.71</t>
   </si>
 </sst>
 </file>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A79BA0-D8D4-481B-962A-C90B328A9166}">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="12.75"/>
@@ -17869,8 +17869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -17953,10 +17953,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>105</v>
       </c>
       <c r="C2" s="64">
         <v>8948297.9408124443</v>
@@ -18009,10 +18009,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="64">
         <v>279634310.6503889</v>
@@ -18065,10 +18065,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" s="64">
         <v>264720480.74903482</v>
@@ -18121,10 +18121,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="64">
         <v>49774907.295769222</v>
